--- a/Все файлы проекта/Основные файлы проекта/База данных CourseProjectADONet.xlsx
+++ b/Все файлы проекта/Основные файлы проекта/База данных CourseProjectADONet.xlsx
@@ -5,39 +5,40 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Documents\Личное\Программирование\CourseProjectADONet\Дополнения к проету\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Родители\Папа\ADO.NET\Курсовой проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" tabRatio="855" firstSheet="12" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12045" tabRatio="855"/>
   </bookViews>
   <sheets>
-    <sheet name="Проекты" sheetId="21" r:id="rId1"/>
-    <sheet name="Секции" sheetId="8" r:id="rId2"/>
-    <sheet name="Бетоны" sheetId="16" r:id="rId3"/>
-    <sheet name="ЭтажиСек1" sheetId="11" r:id="rId4"/>
-    <sheet name="ЭтажиСек2" sheetId="14" r:id="rId5"/>
-    <sheet name="Колонны" sheetId="1" r:id="rId6"/>
-    <sheet name="КолоннЭтСек1" sheetId="18" r:id="rId7"/>
-    <sheet name="КолоннЭтСек2" sheetId="19" r:id="rId8"/>
-    <sheet name="КолоннБет" sheetId="17" r:id="rId9"/>
-    <sheet name="Стены" sheetId="6" r:id="rId10"/>
-    <sheet name="СтеныЭтСек1" sheetId="23" r:id="rId11"/>
-    <sheet name="СтеныЭтСек2" sheetId="24" r:id="rId12"/>
-    <sheet name="СтеныБет" sheetId="25" r:id="rId13"/>
-    <sheet name="Перекрытия" sheetId="7" r:id="rId14"/>
-    <sheet name="ПерекрЭтСек1" sheetId="27" r:id="rId15"/>
-    <sheet name="ПерекрЭтСек2" sheetId="28" r:id="rId16"/>
-    <sheet name="ПерекрБет" sheetId="29" r:id="rId17"/>
-    <sheet name="Переходные" sheetId="26" r:id="rId18"/>
-    <sheet name="ПерехЭтСек1" sheetId="30" r:id="rId19"/>
-    <sheet name="ПерехЭтСек2" sheetId="31" r:id="rId20"/>
-    <sheet name="ПерехБет" sheetId="32" r:id="rId21"/>
+    <sheet name="Общая схема" sheetId="33" r:id="rId1"/>
+    <sheet name="Проекты" sheetId="21" r:id="rId2"/>
+    <sheet name="Секции" sheetId="8" r:id="rId3"/>
+    <sheet name="Бетоны" sheetId="16" r:id="rId4"/>
+    <sheet name="ЭтажиСек1" sheetId="11" r:id="rId5"/>
+    <sheet name="ЭтажиСек2" sheetId="14" r:id="rId6"/>
+    <sheet name="Колонны" sheetId="1" r:id="rId7"/>
+    <sheet name="КолоннЭтСек1" sheetId="18" r:id="rId8"/>
+    <sheet name="КолоннЭтСек2" sheetId="19" r:id="rId9"/>
+    <sheet name="КолоннБет" sheetId="17" r:id="rId10"/>
+    <sheet name="Стены" sheetId="6" r:id="rId11"/>
+    <sheet name="СтеныЭтСек1" sheetId="23" r:id="rId12"/>
+    <sheet name="СтеныЭтСек2" sheetId="24" r:id="rId13"/>
+    <sheet name="СтеныБет" sheetId="25" r:id="rId14"/>
+    <sheet name="Перекрытия" sheetId="7" r:id="rId15"/>
+    <sheet name="ПерекрЭтСек1" sheetId="27" r:id="rId16"/>
+    <sheet name="ПерекрЭтСек2" sheetId="28" r:id="rId17"/>
+    <sheet name="ПерекрБет" sheetId="29" r:id="rId18"/>
+    <sheet name="Переходные" sheetId="26" r:id="rId19"/>
+    <sheet name="ПерехЭтСек1" sheetId="30" r:id="rId20"/>
+    <sheet name="ПерехЭтСек2" sheetId="31" r:id="rId21"/>
+    <sheet name="ПерехБет" sheetId="32" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Стены!$A$1:$E$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Стены!$A$1:$E$188</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="482">
   <si>
     <t>Наименование</t>
   </si>
@@ -803,16 +804,706 @@
   </si>
   <si>
     <t>Изображение</t>
+  </si>
+  <si>
+    <t>проекты</t>
+  </si>
+  <si>
+    <t>бетоны</t>
+  </si>
+  <si>
+    <t>этажи</t>
+  </si>
+  <si>
+    <t>стены</t>
+  </si>
+  <si>
+    <t>колонны</t>
+  </si>
+  <si>
+    <t>перекрытия</t>
+  </si>
+  <si>
+    <t>лестницы</t>
+  </si>
+  <si>
+    <t>площадки</t>
+  </si>
+  <si>
+    <t>вертикал</t>
+  </si>
+  <si>
+    <t>горизонт</t>
+  </si>
+  <si>
+    <t>арматура</t>
+  </si>
+  <si>
+    <t>уголок</t>
+  </si>
+  <si>
+    <t>швеллер</t>
+  </si>
+  <si>
+    <t>лист</t>
+  </si>
+  <si>
+    <t>двутавр</t>
+  </si>
+  <si>
+    <t>АС</t>
+  </si>
+  <si>
+    <t>труба</t>
+  </si>
+  <si>
+    <t>кирпич</t>
+  </si>
+  <si>
+    <t>раствор</t>
+  </si>
+  <si>
+    <t>смесь</t>
+  </si>
+  <si>
+    <t>название таблицы</t>
+  </si>
+  <si>
+    <t>проектные данные</t>
+  </si>
+  <si>
+    <t>гидроизоляция рул</t>
+  </si>
+  <si>
+    <t>гидроизоляция обмаз</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>фундаменты</t>
+  </si>
+  <si>
+    <t>IDпроекта</t>
+  </si>
+  <si>
+    <t>IDвертикала</t>
+  </si>
+  <si>
+    <t>IDгоризонта</t>
+  </si>
+  <si>
+    <t>IDлестницы</t>
+  </si>
+  <si>
+    <t>IDбетона</t>
+  </si>
+  <si>
+    <t>IDматериала</t>
+  </si>
+  <si>
+    <t>IDарматуры</t>
+  </si>
+  <si>
+    <t>арматуры</t>
+  </si>
+  <si>
+    <t>уголки</t>
+  </si>
+  <si>
+    <t>швеллеры</t>
+  </si>
+  <si>
+    <t>двутавры</t>
+  </si>
+  <si>
+    <t>листы</t>
+  </si>
+  <si>
+    <t>трубы</t>
+  </si>
+  <si>
+    <t>кирпичи</t>
+  </si>
+  <si>
+    <t>растворы</t>
+  </si>
+  <si>
+    <t>смеси</t>
+  </si>
+  <si>
+    <t>IDуголка</t>
+  </si>
+  <si>
+    <t>IDшвеллера</t>
+  </si>
+  <si>
+    <t>IDлиста</t>
+  </si>
+  <si>
+    <t>IDтрубы</t>
+  </si>
+  <si>
+    <t>IDкирпича</t>
+  </si>
+  <si>
+    <t>IDраствора</t>
+  </si>
+  <si>
+    <t>IDсмеси</t>
+  </si>
+  <si>
+    <t>IDгидроизолРул</t>
+  </si>
+  <si>
+    <t>IDгидроизолОбмаз</t>
+  </si>
+  <si>
+    <t>своды</t>
+  </si>
+  <si>
+    <t>арки</t>
+  </si>
+  <si>
+    <t>IDфундамента</t>
+  </si>
+  <si>
+    <t>свайный</t>
+  </si>
+  <si>
+    <t>ростверк</t>
+  </si>
+  <si>
+    <t>КМ</t>
+  </si>
+  <si>
+    <t>АР</t>
+  </si>
+  <si>
+    <t>ОВ</t>
+  </si>
+  <si>
+    <t>ленточный</t>
+  </si>
+  <si>
+    <t>плита</t>
+  </si>
+  <si>
+    <t>сети</t>
+  </si>
+  <si>
+    <t>IDсети</t>
+  </si>
+  <si>
+    <t>наружные</t>
+  </si>
+  <si>
+    <t>внутренние</t>
+  </si>
+  <si>
+    <t>монолитные</t>
+  </si>
+  <si>
+    <t>доска</t>
+  </si>
+  <si>
+    <t>брус</t>
+  </si>
+  <si>
+    <t>IDбруса</t>
+  </si>
+  <si>
+    <t>IDэтажа</t>
+  </si>
+  <si>
+    <t>IDсекции</t>
+  </si>
+  <si>
+    <t>общестрой</t>
+  </si>
+  <si>
+    <t>общестрои</t>
+  </si>
+  <si>
+    <t>отделки</t>
+  </si>
+  <si>
+    <t>IDобщестроя</t>
+  </si>
+  <si>
+    <t>IDотделки</t>
+  </si>
+  <si>
+    <t>монтаж</t>
+  </si>
+  <si>
+    <t>кладка</t>
+  </si>
+  <si>
+    <t>сетевые</t>
+  </si>
+  <si>
+    <t>видыРабот</t>
+  </si>
+  <si>
+    <t>IDвидаРабот</t>
+  </si>
+  <si>
+    <t>благоустройство</t>
+  </si>
+  <si>
+    <t>IDблагоустройства</t>
+  </si>
+  <si>
+    <t>черновая</t>
+  </si>
+  <si>
+    <t>чистовая</t>
+  </si>
+  <si>
+    <t>материалы по ГОСТ</t>
+  </si>
+  <si>
+    <t>асфальт</t>
+  </si>
+  <si>
+    <t>сетиНаруж</t>
+  </si>
+  <si>
+    <t>сетиВнутр</t>
+  </si>
+  <si>
+    <t>IDсетиНаруж</t>
+  </si>
+  <si>
+    <t>IDсетиВнутр</t>
+  </si>
+  <si>
+    <t>водоснабжение</t>
+  </si>
+  <si>
+    <t>канализация</t>
+  </si>
+  <si>
+    <t>ландшафтное</t>
+  </si>
+  <si>
+    <t>городское</t>
+  </si>
+  <si>
+    <t>жилых районов</t>
+  </si>
+  <si>
+    <t>прибрежных территорий</t>
+  </si>
+  <si>
+    <t>садово-парковое</t>
+  </si>
+  <si>
+    <t>спортивное</t>
+  </si>
+  <si>
+    <t>общественных мест</t>
+  </si>
+  <si>
+    <t>транспортное</t>
+  </si>
+  <si>
+    <t>инфраструктурное</t>
+  </si>
+  <si>
+    <t>водопроводные</t>
+  </si>
+  <si>
+    <t>канализационные</t>
+  </si>
+  <si>
+    <t>газопроводные</t>
+  </si>
+  <si>
+    <t>тепротрассы</t>
+  </si>
+  <si>
+    <t>электроснабжение</t>
+  </si>
+  <si>
+    <t>теплоснабжение</t>
+  </si>
+  <si>
+    <t>вентиляция</t>
+  </si>
+  <si>
+    <t>газоснабжение</t>
+  </si>
+  <si>
+    <t>пожаротушения</t>
+  </si>
+  <si>
+    <t>слаботочные</t>
+  </si>
+  <si>
+    <t>фасадные</t>
+  </si>
+  <si>
+    <t>отделочные</t>
+  </si>
+  <si>
+    <t>ГП</t>
+  </si>
+  <si>
+    <t>цельные</t>
+  </si>
+  <si>
+    <t>отдельные</t>
+  </si>
+  <si>
+    <t>кондиционирование</t>
+  </si>
+  <si>
+    <t>электрические</t>
+  </si>
+  <si>
+    <t>щебень</t>
+  </si>
+  <si>
+    <t>пенопласт</t>
+  </si>
+  <si>
+    <t>пеноплекс</t>
+  </si>
+  <si>
+    <t>минераловатный утеплитель</t>
+  </si>
+  <si>
+    <t>ID ЖБИ</t>
+  </si>
+  <si>
+    <t>КЖ</t>
+  </si>
+  <si>
+    <t>жилое</t>
+  </si>
+  <si>
+    <t>инженерное сооружение</t>
+  </si>
+  <si>
+    <t>сборные ЖБИ</t>
+  </si>
+  <si>
+    <t>дизайнерская</t>
+  </si>
+  <si>
+    <t>предчистовая</t>
+  </si>
+  <si>
+    <t>нормативные данные (библиотеки)</t>
+  </si>
+  <si>
+    <t>проектныеДанные</t>
+  </si>
+  <si>
+    <t>IDпроектныхДанных</t>
+  </si>
+  <si>
+    <t>типыЗдания</t>
+  </si>
+  <si>
+    <t>секцииБлоки</t>
+  </si>
+  <si>
+    <t>типыКонструкций</t>
+  </si>
+  <si>
+    <t>материалыКонструкций</t>
+  </si>
+  <si>
+    <t>IDматериалаКонструкции</t>
+  </si>
+  <si>
+    <t>IDтипаКонструкции</t>
+  </si>
+  <si>
+    <t>бетон</t>
+  </si>
+  <si>
+    <t>металл</t>
+  </si>
+  <si>
+    <t>дерево</t>
+  </si>
+  <si>
+    <t>фасады</t>
+  </si>
+  <si>
+    <t>благоустройства</t>
+  </si>
+  <si>
+    <t>IDасфальта</t>
+  </si>
+  <si>
+    <t>IDщебня</t>
+  </si>
+  <si>
+    <t>IDпенопласта</t>
+  </si>
+  <si>
+    <t>IDпеноплекса</t>
+  </si>
+  <si>
+    <t>IDминераловатногоУтеплителя</t>
+  </si>
+  <si>
+    <t>минераловатныйУтеплитель</t>
+  </si>
+  <si>
+    <t>отделочные материалы</t>
+  </si>
+  <si>
+    <t>документация</t>
+  </si>
+  <si>
+    <t>СНиП</t>
+  </si>
+  <si>
+    <t>ГОСТ</t>
+  </si>
+  <si>
+    <t>СП</t>
+  </si>
+  <si>
+    <t>СанПин</t>
+  </si>
+  <si>
+    <t>ТУ</t>
+  </si>
+  <si>
+    <t>кирпичный</t>
+  </si>
+  <si>
+    <t>каменный</t>
+  </si>
+  <si>
+    <t>деревянный</t>
+  </si>
+  <si>
+    <t>монолитный</t>
+  </si>
+  <si>
+    <t>оштукатуреннный</t>
+  </si>
+  <si>
+    <t>светопрозрачный</t>
+  </si>
+  <si>
+    <t>навесной вентилируемый</t>
+  </si>
+  <si>
+    <t>теплоизоляционный (мокрый)</t>
+  </si>
+  <si>
+    <t>IDфасада</t>
+  </si>
+  <si>
+    <t>IDдвутавра</t>
+  </si>
+  <si>
+    <t>типы данных</t>
+  </si>
+  <si>
+    <t>IDтиповДанных</t>
+  </si>
+  <si>
+    <t>проектные</t>
+  </si>
+  <si>
+    <t>нормативные</t>
+  </si>
+  <si>
+    <t>дизайн таблиц</t>
+  </si>
+  <si>
+    <t>наименование</t>
+  </si>
+  <si>
+    <t>типыДанных</t>
+  </si>
+  <si>
+    <t>нормативныеДанные</t>
+  </si>
+  <si>
+    <t>IDнормативныхДанных</t>
+  </si>
+  <si>
+    <t>IDдокументации</t>
+  </si>
+  <si>
+    <t>IDотелочногоМатериала</t>
+  </si>
+  <si>
+    <t>№изменений</t>
+  </si>
+  <si>
+    <t>датаВыдачи</t>
+  </si>
+  <si>
+    <t>шифрБукв</t>
+  </si>
+  <si>
+    <t>шифрЦифр</t>
+  </si>
+  <si>
+    <t>количествоЛистов</t>
+  </si>
+  <si>
+    <t>статус</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>отклонения по НД</t>
+  </si>
+  <si>
+    <t>IDотклонений</t>
+  </si>
+  <si>
+    <t>проектировщик</t>
+  </si>
+  <si>
+    <t>лица</t>
+  </si>
+  <si>
+    <t>IDлица</t>
+  </si>
+  <si>
+    <t>застройщик</t>
+  </si>
+  <si>
+    <t>лицо осущ подготовку проект докум</t>
+  </si>
+  <si>
+    <t>адрес</t>
+  </si>
+  <si>
+    <t>ОГРН</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>IDсро</t>
+  </si>
+  <si>
+    <t>СРО</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>IDспециалиста</t>
+  </si>
+  <si>
+    <t>специалисты</t>
+  </si>
+  <si>
+    <t>названиеЛица</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>фамилия</t>
+  </si>
+  <si>
+    <t>должность</t>
+  </si>
+  <si>
+    <t>приказ</t>
+  </si>
+  <si>
+    <t>местоположение</t>
+  </si>
+  <si>
+    <t>строительный номер</t>
+  </si>
+  <si>
+    <t>общественное</t>
+  </si>
+  <si>
+    <t>промышленное</t>
+  </si>
+  <si>
+    <t>сельскохозяйственное</t>
+  </si>
+  <si>
+    <t>складское</t>
+  </si>
+  <si>
+    <t>описание</t>
+  </si>
+  <si>
+    <t>I класс</t>
+  </si>
+  <si>
+    <t>II класс</t>
+  </si>
+  <si>
+    <t>III класс</t>
+  </si>
+  <si>
+    <t>IV класс</t>
+  </si>
+  <si>
+    <t>IDтипаОбъекта</t>
+  </si>
+  <si>
+    <t>IDклассаОбъекта</t>
+  </si>
+  <si>
+    <t>типыОбъекта</t>
+  </si>
+  <si>
+    <t>классыОбъекта</t>
+  </si>
+  <si>
+    <t>классОбъекта</t>
+  </si>
+  <si>
+    <t>датаПриказа</t>
+  </si>
+  <si>
+    <t>номерНРС</t>
+  </si>
+  <si>
+    <t>НРСдействителенДо</t>
+  </si>
+  <si>
+    <t>лицо авторского надзора</t>
+  </si>
+  <si>
+    <t>лицо осуществляющее строительство</t>
+  </si>
+  <si>
+    <t>IDобъекта</t>
+  </si>
+  <si>
+    <t>объекты</t>
+  </si>
+  <si>
+    <t>технический заказчик</t>
+  </si>
+  <si>
+    <t>региональный оператор</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +1527,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -851,7 +1551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -859,11 +1559,411 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,6 +2058,126 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,179 +2459,3046 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:AY48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="23.42578125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="12"/>
+    <col min="10" max="10" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="12" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.85546875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="12"/>
+    <col min="40" max="40" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24" style="12" customWidth="1"/>
+    <col min="48" max="48" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.140625" style="40" customWidth="1"/>
+    <col min="51" max="51" width="18" style="40" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:51" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA2" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB2" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC2" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE2" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF2" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG2" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH2" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI2" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ2" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK2" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL2" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM2" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN2" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="AO2" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP2" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ2" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR2" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS2" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="AT2" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU2" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="AV2" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="AW2" s="67" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX2" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="AY2" s="74" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="U3" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="V3" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="W3" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="X3" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z3" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA3" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB3" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC3" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD3" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE3" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG3" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH3" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI3" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ3" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK3" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL3" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM3" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN3" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="AO3" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP3" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="AQ3" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="AR3" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS3" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="AT3" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="AU3" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="AV3" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="AW3" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="AX3" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="AY3" s="57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AO4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AQ4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AR4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AS4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AV4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AW4" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="AX4" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="AY4" s="48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="AY5" s="48"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="48"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="47"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="47"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+    </row>
+    <row r="23" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="52"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="52"/>
+      <c r="AY23" s="58"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="9">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="8">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="J25" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="W25" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV25" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="AW25" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX25" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="AY25" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="13">
+        <v>2</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="W26" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="AV26" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW26" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AX26" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="AY26" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H27" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="8">
-        <v>45321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="8">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="8">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="8">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="8">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="I27" s="13">
+        <v>2</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="W27" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AV27" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AW27" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX27" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY27" s="65"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" s="13">
+        <v>3</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="W28" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV28" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="AW28" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX28" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="AY28" s="65"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="13">
+        <v>200</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="W29" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV29" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW29" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="65"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13">
+        <v>200</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="W30" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="X30" s="13"/>
+      <c r="AW30" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="AX30" s="13"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="W31" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="X31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="W32" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+    </row>
+    <row r="33" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="V33" s="13"/>
+      <c r="W33" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="X33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+    </row>
+    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" s="13"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="13"/>
+    </row>
+    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="W35" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="X35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+    </row>
+    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="W36" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="X36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+    </row>
+    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="W37" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="X37" s="13"/>
+      <c r="AW37" s="13"/>
+      <c r="AX37" s="13"/>
+    </row>
+    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="W38" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="X38" s="13"/>
+      <c r="AW38" s="13"/>
+      <c r="AX38" s="13"/>
+    </row>
+    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="W39" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="X39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+    </row>
+    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="W40" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="X40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+    </row>
+    <row r="41" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="W41" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="X41" s="13"/>
+      <c r="AW41" s="13"/>
+      <c r="AX41" s="13"/>
+    </row>
+    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="W42" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="X42" s="13"/>
+      <c r="AW42" s="13"/>
+      <c r="AX42" s="13"/>
+    </row>
+    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="W43" s="59" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="W44" s="59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="W45" s="59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="W46" s="59" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="W47" s="59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="W48" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M188"/>
   <sheetViews>
@@ -3541,12 +7628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection sqref="A1:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,7 +9160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D145"/>
   <sheetViews>
@@ -6982,7 +11069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -7453,7 +11540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -7916,7 +12003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D118"/>
   <sheetViews>
@@ -8679,7 +12766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
@@ -9490,7 +13577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9697,7 +13784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -9964,7 +14051,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D137"/>
   <sheetViews>
@@ -10803,84 +15064,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-2.8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>216.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-2.8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>216.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11713,7 +15903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -11834,6 +16024,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>216.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>216.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12105,12 +16368,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12772,7 +17035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -13440,12 +17703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -15615,12 +19878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D55"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16407,12 +20670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17000,651 +21263,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>56</v>
-      </c>
-      <c r="C57" s="1">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Все файлы проекта/Основные файлы проекта/База данных CourseProjectADONet.xlsx
+++ b/Все файлы проекта/Основные файлы проекта/База данных CourseProjectADONet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Родители\Папа\ADO.NET\Курсовой проект\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12045" tabRatio="855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12195" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="Общая схема" sheetId="33" r:id="rId1"/>
@@ -38,7 +38,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Стены!$A$1:$E$188</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="487">
   <si>
     <t>Наименование</t>
   </si>
@@ -1494,12 +1494,27 @@
   </si>
   <si>
     <t>региональный оператор</t>
+  </si>
+  <si>
+    <t>IDпроектировщика</t>
+  </si>
+  <si>
+    <t>проектировщики</t>
+  </si>
+  <si>
+    <t>IDпроектровщика</t>
+  </si>
+  <si>
+    <t>осиОсновные</t>
+  </si>
+  <si>
+    <t>осиЛокальные</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1537,7 +1552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,6 +1562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2134,12 +2155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2177,6 +2192,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2459,94 +2483,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY48"/>
+  <dimension ref="A1:AZ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="23.42578125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="12"/>
-    <col min="10" max="10" width="19" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="12" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.85546875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" style="12"/>
-    <col min="40" max="40" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="31.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24" style="12" customWidth="1"/>
-    <col min="48" max="48" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.140625" style="40" customWidth="1"/>
-    <col min="51" max="51" width="18" style="40" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="12"/>
+    <col min="3" max="3" width="23.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="36" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="23.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="12" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.85546875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="12"/>
+    <col min="41" max="41" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24" style="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24" style="12" customWidth="1"/>
+    <col min="49" max="49" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.140625" style="40" customWidth="1"/>
+    <col min="52" max="52" width="18" style="40" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:52" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="56" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="39"/>
+      <c r="Y1" s="61"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
@@ -2571,349 +2596,356 @@
       <c r="AU1" s="39"/>
       <c r="AV1" s="39"/>
       <c r="AW1" s="39"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="38" t="s">
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="38" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:52" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="E2" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="F2" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="G2" s="67" t="s">
         <v>479</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="H2" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="P2" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="U2" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="V2" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="W2" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="X2" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="Y2" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Z2" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="AA2" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AB2" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AC2" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AD2" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AE2" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AF2" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AG2" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AH2" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AI2" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AK2" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AL2" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AM2" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AN2" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AO2" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AP2" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="AP2" s="41" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="AQ2" s="41" t="s">
+      <c r="AR2" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AS2" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="AS2" s="41" t="s">
+      <c r="AT2" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="AT2" s="41" t="s">
+      <c r="AU2" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="AU2" s="42" t="s">
+      <c r="AV2" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="AV2" s="73" t="s">
+      <c r="AW2" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="AW2" s="67" t="s">
+      <c r="AX2" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="AX2" s="69" t="s">
+      <c r="AY2" s="67" t="s">
         <v>471</v>
       </c>
-      <c r="AY2" s="74" t="s">
+      <c r="AZ2" s="72" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>423</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>384</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="H3" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="I3" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="J3" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="K3" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="L3" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="M3" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="N3" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="O3" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="P3" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="Q3" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="R3" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="S3" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="T3" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="U3" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="V3" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="W3" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="W3" s="44" t="s">
+      <c r="X3" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="X3" s="44" t="s">
+      <c r="Y3" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Z3" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="AA3" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="AA3" s="44" t="s">
+      <c r="AB3" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="AB3" s="44" t="s">
+      <c r="AC3" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AD3" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AE3" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AF3" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AG3" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="AG3" s="44" t="s">
+      <c r="AH3" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="AH3" s="44" t="s">
+      <c r="AI3" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AI3" s="44" t="s">
+      <c r="AJ3" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="AJ3" s="44" t="s">
+      <c r="AK3" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="AK3" s="44" t="s">
+      <c r="AL3" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="AL3" s="44" t="s">
+      <c r="AM3" s="44" t="s">
         <v>302</v>
-      </c>
-      <c r="AM3" s="44" t="s">
-        <v>320</v>
       </c>
       <c r="AN3" s="44" t="s">
         <v>320</v>
       </c>
       <c r="AO3" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP3" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="AP3" s="44" t="s">
+      <c r="AQ3" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="AQ3" s="44" t="s">
+      <c r="AR3" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="AR3" s="44" t="s">
+      <c r="AS3" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="AS3" s="44" t="s">
+      <c r="AT3" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="AT3" s="44" t="s">
+      <c r="AU3" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="AU3" s="45" t="s">
+      <c r="AV3" s="45" t="s">
         <v>438</v>
       </c>
-      <c r="AV3" s="45" t="s">
+      <c r="AW3" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="AW3" s="45" t="s">
+      <c r="AX3" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="AX3" s="45" t="s">
+      <c r="AY3" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="AY3" s="57" t="s">
+      <c r="AZ3" s="57" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="72" t="s">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="F4" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G4" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>424</v>
+      <c r="I4" s="37" t="s">
+        <v>478</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>424</v>
+        <v>8</v>
       </c>
       <c r="K4" s="47" t="s">
         <v>424</v>
@@ -2958,10 +2990,10 @@
         <v>424</v>
       </c>
       <c r="Y4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z4" s="47" t="s">
         <v>253</v>
-      </c>
-      <c r="Z4" s="47" t="s">
-        <v>424</v>
       </c>
       <c r="AA4" s="47" t="s">
         <v>424</v>
@@ -3030,35 +3062,40 @@
         <v>424</v>
       </c>
       <c r="AW4" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="AX4" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="AX4" s="47" t="s">
+      <c r="AY4" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="AY4" s="48" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="47" t="s">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="E5" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="F5" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="H5" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>424</v>
+      </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
       <c r="L5" s="47"/>
@@ -3071,13 +3108,13 @@
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="47"/>
-      <c r="Y5" s="47" t="s">
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="Z5" s="47"/>
       <c r="AA5" s="47"/>
       <c r="AB5" s="47"/>
       <c r="AC5" s="47"/>
@@ -3098,34 +3135,37 @@
       <c r="AR5" s="47"/>
       <c r="AS5" s="47"/>
       <c r="AT5" s="47"/>
-      <c r="AU5" s="45"/>
+      <c r="AU5" s="47"/>
       <c r="AV5" s="45"/>
       <c r="AW5" s="45"/>
-      <c r="AX5" s="45" t="s">
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45" t="s">
         <v>463</v>
       </c>
-      <c r="AY5" s="48"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="49" t="s">
+      <c r="AZ5" s="48"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="E6" s="49" t="s">
         <v>445</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="F6" s="49" t="s">
         <v>454</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>424</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>485</v>
+      </c>
       <c r="J6" s="47"/>
       <c r="K6" s="47"/>
       <c r="L6" s="47"/>
@@ -3138,13 +3178,13 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
       <c r="U6" s="47"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="50"/>
       <c r="X6" s="47"/>
-      <c r="Y6" s="47" t="s">
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="Z6" s="47"/>
       <c r="AA6" s="47"/>
       <c r="AB6" s="47"/>
       <c r="AC6" s="47"/>
@@ -3165,32 +3205,35 @@
       <c r="AR6" s="47"/>
       <c r="AS6" s="47"/>
       <c r="AT6" s="47"/>
-      <c r="AU6" s="48"/>
+      <c r="AU6" s="47"/>
       <c r="AV6" s="48"/>
       <c r="AW6" s="48"/>
       <c r="AX6" s="48"/>
       <c r="AY6" s="48"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="49" t="s">
+      <c r="AZ6" s="48"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="E7" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="F7" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="G7" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="47" t="s">
+        <v>486</v>
+      </c>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
       <c r="L7" s="47"/>
@@ -3203,13 +3246,13 @@
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
       <c r="U7" s="47"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="50"/>
       <c r="X7" s="47"/>
-      <c r="Y7" s="47" t="s">
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="Z7" s="47"/>
       <c r="AA7" s="47"/>
       <c r="AB7" s="47"/>
       <c r="AC7" s="47"/>
@@ -3230,32 +3273,35 @@
       <c r="AR7" s="47"/>
       <c r="AS7" s="47"/>
       <c r="AT7" s="47"/>
-      <c r="AU7" s="48"/>
+      <c r="AU7" s="47"/>
       <c r="AV7" s="48"/>
       <c r="AW7" s="48"/>
       <c r="AX7" s="48"/>
       <c r="AY7" s="48"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="AZ7" s="48"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49" t="s">
         <v>445</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="E8" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="F8" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="G8" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="H8" s="47" t="s">
         <v>433</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="47" t="s">
+        <v>89</v>
+      </c>
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
       <c r="L8" s="47"/>
@@ -3268,13 +3314,13 @@
       <c r="S8" s="47"/>
       <c r="T8" s="47"/>
       <c r="U8" s="47"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="50"/>
       <c r="X8" s="47"/>
-      <c r="Y8" s="47" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="Z8" s="47"/>
       <c r="AA8" s="47"/>
       <c r="AB8" s="47"/>
       <c r="AC8" s="47"/>
@@ -3295,27 +3341,28 @@
       <c r="AR8" s="47"/>
       <c r="AS8" s="47"/>
       <c r="AT8" s="47"/>
-      <c r="AU8" s="48"/>
+      <c r="AU8" s="47"/>
       <c r="AV8" s="48"/>
       <c r="AW8" s="48"/>
       <c r="AX8" s="48"/>
       <c r="AY8" s="48"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="AZ8" s="48"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
       <c r="K9" s="47"/>
@@ -3329,13 +3376,13 @@
       <c r="S9" s="47"/>
       <c r="T9" s="47"/>
       <c r="U9" s="47"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="50"/>
       <c r="X9" s="47"/>
-      <c r="Y9" s="47" t="s">
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="Z9" s="47"/>
       <c r="AA9" s="47"/>
       <c r="AB9" s="47"/>
       <c r="AC9" s="47"/>
@@ -3356,27 +3403,28 @@
       <c r="AR9" s="47"/>
       <c r="AS9" s="47"/>
       <c r="AT9" s="47"/>
-      <c r="AU9" s="48"/>
+      <c r="AU9" s="47"/>
       <c r="AV9" s="48"/>
       <c r="AW9" s="48"/>
       <c r="AX9" s="48"/>
       <c r="AY9" s="48"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="AZ9" s="48"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="49"/>
+      <c r="H10" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
@@ -3390,13 +3438,13 @@
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="50"/>
       <c r="X10" s="47"/>
-      <c r="Y10" s="47" t="s">
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="Z10" s="47"/>
       <c r="AA10" s="47"/>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47"/>
@@ -3417,25 +3465,26 @@
       <c r="AR10" s="47"/>
       <c r="AS10" s="47"/>
       <c r="AT10" s="47"/>
-      <c r="AU10" s="48"/>
+      <c r="AU10" s="47"/>
       <c r="AV10" s="48"/>
       <c r="AW10" s="48"/>
       <c r="AX10" s="48"/>
       <c r="AY10" s="48"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="AZ10" s="48"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
@@ -3449,13 +3498,13 @@
       <c r="S11" s="47"/>
       <c r="T11" s="47"/>
       <c r="U11" s="47"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="50"/>
       <c r="X11" s="47"/>
-      <c r="Y11" s="47" t="s">
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="Z11" s="47"/>
       <c r="AA11" s="47"/>
       <c r="AB11" s="47"/>
       <c r="AC11" s="47"/>
@@ -3476,23 +3525,24 @@
       <c r="AR11" s="47"/>
       <c r="AS11" s="47"/>
       <c r="AT11" s="47"/>
-      <c r="AU11" s="48"/>
+      <c r="AU11" s="47"/>
       <c r="AV11" s="48"/>
       <c r="AW11" s="48"/>
       <c r="AX11" s="48"/>
       <c r="AY11" s="48"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="AZ11" s="48"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="47"/>
-      <c r="E12" s="49"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
       <c r="K12" s="47"/>
@@ -3506,13 +3556,13 @@
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="50"/>
       <c r="X12" s="47"/>
-      <c r="Y12" s="47" t="s">
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="Z12" s="47"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47"/>
@@ -3533,20 +3583,21 @@
       <c r="AR12" s="47"/>
       <c r="AS12" s="47"/>
       <c r="AT12" s="47"/>
-      <c r="AU12" s="48"/>
+      <c r="AU12" s="47"/>
       <c r="AV12" s="48"/>
       <c r="AW12" s="48"/>
       <c r="AX12" s="48"/>
       <c r="AY12" s="48"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="AZ12" s="48"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="47"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="47"/>
-      <c r="E13" s="49"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="49"/>
-      <c r="G13" s="47"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
@@ -3554,20 +3605,20 @@
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
       <c r="Q13" s="47"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="49"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="50"/>
       <c r="X13" s="47"/>
-      <c r="Y13" s="47" t="s">
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="Z13" s="47"/>
       <c r="AA13" s="47"/>
       <c r="AB13" s="47"/>
       <c r="AC13" s="47"/>
@@ -3588,20 +3639,21 @@
       <c r="AR13" s="47"/>
       <c r="AS13" s="47"/>
       <c r="AT13" s="47"/>
-      <c r="AU13" s="48"/>
+      <c r="AU13" s="47"/>
       <c r="AV13" s="48"/>
       <c r="AW13" s="48"/>
       <c r="AX13" s="48"/>
       <c r="AY13" s="48"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="AZ13" s="48"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
       <c r="B14" s="36"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
@@ -3609,20 +3661,20 @@
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="49"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="50"/>
       <c r="X14" s="47"/>
-      <c r="Y14" s="47" t="s">
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="Z14" s="47"/>
       <c r="AA14" s="47"/>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47"/>
@@ -3643,20 +3695,21 @@
       <c r="AR14" s="47"/>
       <c r="AS14" s="47"/>
       <c r="AT14" s="47"/>
-      <c r="AU14" s="48"/>
+      <c r="AU14" s="47"/>
       <c r="AV14" s="48"/>
       <c r="AW14" s="48"/>
       <c r="AX14" s="48"/>
       <c r="AY14" s="48"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="AZ14" s="48"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
       <c r="B15" s="36"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
-      <c r="G15" s="47"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
@@ -3664,20 +3717,20 @@
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="47"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="49"/>
       <c r="T15" s="47"/>
       <c r="U15" s="47"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="50"/>
       <c r="X15" s="47"/>
-      <c r="Y15" s="47" t="s">
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="Z15" s="47"/>
       <c r="AA15" s="47"/>
       <c r="AB15" s="47"/>
       <c r="AC15" s="47"/>
@@ -3698,20 +3751,21 @@
       <c r="AR15" s="47"/>
       <c r="AS15" s="47"/>
       <c r="AT15" s="47"/>
-      <c r="AU15" s="48"/>
+      <c r="AU15" s="47"/>
       <c r="AV15" s="48"/>
       <c r="AW15" s="48"/>
       <c r="AX15" s="48"/>
       <c r="AY15" s="48"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="AZ15" s="48"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
       <c r="B16" s="36"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
@@ -3719,20 +3773,20 @@
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
       <c r="Q16" s="47"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="49"/>
       <c r="T16" s="47"/>
       <c r="U16" s="47"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="50"/>
       <c r="X16" s="47"/>
-      <c r="Y16" s="47" t="s">
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="Z16" s="47"/>
       <c r="AA16" s="47"/>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47"/>
@@ -3753,20 +3807,21 @@
       <c r="AR16" s="47"/>
       <c r="AS16" s="47"/>
       <c r="AT16" s="47"/>
-      <c r="AU16" s="48"/>
+      <c r="AU16" s="47"/>
       <c r="AV16" s="48"/>
       <c r="AW16" s="48"/>
       <c r="AX16" s="48"/>
       <c r="AY16" s="48"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="AZ16" s="48"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
       <c r="B17" s="36"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
@@ -3774,20 +3829,20 @@
       <c r="L17" s="47"/>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="49"/>
       <c r="T17" s="47"/>
       <c r="U17" s="47"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="50"/>
       <c r="X17" s="47"/>
-      <c r="Y17" s="47" t="s">
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="Z17" s="47"/>
       <c r="AA17" s="47"/>
       <c r="AB17" s="47"/>
       <c r="AC17" s="47"/>
@@ -3808,20 +3863,21 @@
       <c r="AR17" s="47"/>
       <c r="AS17" s="47"/>
       <c r="AT17" s="47"/>
-      <c r="AU17" s="48"/>
+      <c r="AU17" s="47"/>
       <c r="AV17" s="48"/>
       <c r="AW17" s="48"/>
       <c r="AX17" s="48"/>
       <c r="AY17" s="48"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="AZ17" s="48"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
       <c r="B18" s="36"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
@@ -3829,20 +3885,20 @@
       <c r="L18" s="47"/>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="49"/>
       <c r="T18" s="47"/>
       <c r="U18" s="47"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="50"/>
       <c r="X18" s="47"/>
-      <c r="Y18" s="47" t="s">
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="Z18" s="47"/>
       <c r="AA18" s="47"/>
       <c r="AB18" s="47"/>
       <c r="AC18" s="47"/>
@@ -3863,20 +3919,21 @@
       <c r="AR18" s="47"/>
       <c r="AS18" s="47"/>
       <c r="AT18" s="47"/>
-      <c r="AU18" s="48"/>
+      <c r="AU18" s="47"/>
       <c r="AV18" s="48"/>
       <c r="AW18" s="48"/>
       <c r="AX18" s="48"/>
       <c r="AY18" s="48"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="AZ18" s="48"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
       <c r="B19" s="36"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
-      <c r="G19" s="47"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
@@ -3884,20 +3941,20 @@
       <c r="L19" s="47"/>
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="49"/>
       <c r="T19" s="47"/>
       <c r="U19" s="47"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="50"/>
       <c r="X19" s="47"/>
-      <c r="Y19" s="47" t="s">
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="Z19" s="47"/>
       <c r="AA19" s="47"/>
       <c r="AB19" s="47"/>
       <c r="AC19" s="47"/>
@@ -3918,20 +3975,21 @@
       <c r="AR19" s="47"/>
       <c r="AS19" s="47"/>
       <c r="AT19" s="47"/>
-      <c r="AU19" s="48"/>
+      <c r="AU19" s="47"/>
       <c r="AV19" s="48"/>
       <c r="AW19" s="48"/>
       <c r="AX19" s="48"/>
       <c r="AY19" s="48"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+      <c r="AZ19" s="48"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
       <c r="B20" s="36"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
@@ -3939,20 +3997,20 @@
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="47"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="49"/>
       <c r="T20" s="47"/>
       <c r="U20" s="47"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="47"/>
-      <c r="Y20" s="47" t="s">
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="Z20" s="47"/>
       <c r="AA20" s="47"/>
       <c r="AB20" s="47"/>
       <c r="AC20" s="47"/>
@@ -3973,20 +4031,21 @@
       <c r="AR20" s="47"/>
       <c r="AS20" s="47"/>
       <c r="AT20" s="47"/>
-      <c r="AU20" s="48"/>
+      <c r="AU20" s="47"/>
       <c r="AV20" s="48"/>
       <c r="AW20" s="48"/>
       <c r="AX20" s="48"/>
       <c r="AY20" s="48"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="AZ20" s="48"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
       <c r="B21" s="36"/>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
@@ -3994,20 +4053,20 @@
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
       <c r="Q21" s="47"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="49"/>
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="50"/>
       <c r="X21" s="47"/>
-      <c r="Y21" s="47" t="s">
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="Z21" s="47"/>
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
       <c r="AC21" s="47"/>
@@ -4028,20 +4087,21 @@
       <c r="AR21" s="47"/>
       <c r="AS21" s="47"/>
       <c r="AT21" s="47"/>
-      <c r="AU21" s="48"/>
+      <c r="AU21" s="47"/>
       <c r="AV21" s="48"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
       <c r="AY21" s="48"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="AZ21" s="48"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
       <c r="B22" s="36"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
-      <c r="G22" s="47"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
@@ -4049,20 +4109,20 @@
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="49"/>
       <c r="T22" s="47"/>
       <c r="U22" s="47"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="50"/>
       <c r="X22" s="47"/>
-      <c r="Y22" s="47" t="s">
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="Z22" s="47"/>
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
       <c r="AC22" s="47"/>
@@ -4083,20 +4143,21 @@
       <c r="AR22" s="47"/>
       <c r="AS22" s="47"/>
       <c r="AT22" s="47"/>
-      <c r="AU22" s="48"/>
+      <c r="AU22" s="47"/>
       <c r="AV22" s="48"/>
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
       <c r="AY22" s="48"/>
-    </row>
-    <row r="23" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+      <c r="AZ22" s="48"/>
+    </row>
+    <row r="23" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74"/>
       <c r="B23" s="55"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
@@ -4104,20 +4165,20 @@
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
       <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="51"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="53"/>
       <c r="T23" s="51"/>
       <c r="U23" s="51"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="54"/>
       <c r="X23" s="51"/>
-      <c r="Y23" s="51" t="s">
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="Z23" s="51"/>
       <c r="AA23" s="51"/>
       <c r="AB23" s="51"/>
       <c r="AC23" s="51"/>
@@ -4138,319 +4199,324 @@
       <c r="AR23" s="51"/>
       <c r="AS23" s="51"/>
       <c r="AT23" s="51"/>
-      <c r="AU23" s="52"/>
+      <c r="AU23" s="51"/>
       <c r="AV23" s="52"/>
       <c r="AW23" s="52"/>
       <c r="AX23" s="52"/>
-      <c r="AY23" s="58"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY23" s="52"/>
+      <c r="AZ23" s="58"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H25" s="13">
-        <v>1</v>
-      </c>
       <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
         <v>0</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="K25" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="L25" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="M25" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="N25" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="O25" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="P25" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="Q25" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="R25" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="S25" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="T25" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="U25" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="U25" s="13" t="s">
+      <c r="V25" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="V25" s="13" t="s">
+      <c r="W25" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="W25" s="59" t="s">
+      <c r="X25" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="X25" s="13" t="s">
+      <c r="Y25" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="AV25" s="13" t="s">
+      <c r="AW25" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="AW25" s="13" t="s">
+      <c r="AX25" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="AX25" s="13" t="s">
+      <c r="AY25" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="AY25" s="13" t="s">
+      <c r="AZ25" s="13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="68" t="s">
         <v>480</v>
       </c>
-      <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="H26" s="13">
-        <v>2</v>
-      </c>
       <c r="I26" s="13">
-        <v>1</v>
-      </c>
-      <c r="J26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="L26" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="M26" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="N26" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="O26" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="P26" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="Q26" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="R26" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="S26" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="T26" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="U26" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="U26" s="13" t="s">
+      <c r="V26" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="V26" s="13" t="s">
+      <c r="W26" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="W26" s="59" t="s">
+      <c r="X26" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="X26" s="13" t="s">
+      <c r="Y26" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="AV26" s="13" t="s">
+      <c r="AW26" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="AW26" s="13" t="s">
+      <c r="AX26" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="AX26" s="13" t="s">
+      <c r="AY26" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="AY26" s="13" t="s">
+      <c r="AZ26" s="13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="68" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="H27" s="13">
+      <c r="I27" s="13">
         <v>3</v>
       </c>
-      <c r="I27" s="13">
-        <v>2</v>
-      </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="13">
+        <v>2</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="L27" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="M27" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="N27" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="O27" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="S27" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="T27" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="U27" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="V27" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="V27" s="13" t="s">
+      <c r="W27" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="W27" s="59" t="s">
+      <c r="X27" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="X27" s="13" t="s">
+      <c r="Y27" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="AV27" s="13" t="s">
+      <c r="AW27" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="AW27" s="13" t="s">
+      <c r="AX27" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="AX27" s="13" t="s">
+      <c r="AY27" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="AY27" s="65"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ27" s="63"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="I28" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J28" s="13">
         <v>3</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="K28" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="13"/>
+      <c r="M28" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="13"/>
+      <c r="S28" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="T28" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="U28" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="U28" s="13" t="s">
+      <c r="V28" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="V28" s="13" t="s">
+      <c r="W28" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="W28" s="59" t="s">
+      <c r="X28" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="X28" s="13" t="s">
+      <c r="Y28" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="AV28" s="13" t="s">
+      <c r="AW28" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="AW28" s="13" t="s">
+      <c r="AX28" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="AX28" s="13" t="s">
+      <c r="AY28" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="AY28" s="65"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ28" s="63"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="H29" s="13">
+      <c r="I29" s="13">
         <v>200</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="J29" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="K29" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
@@ -4458,49 +4524,50 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="13"/>
+      <c r="T29" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="U29" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="U29" s="13" t="s">
+      <c r="V29" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="V29" s="13" t="s">
+      <c r="W29" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="W29" s="59" t="s">
+      <c r="X29" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="X29" s="13" t="s">
+      <c r="Y29" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="AV29" s="13" t="s">
+      <c r="AW29" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="AW29" s="13" t="s">
+      <c r="AX29" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="65"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="63"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="68" t="s">
         <v>476</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13">
         <v>200</v>
       </c>
-      <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -4510,36 +4577,37 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="13"/>
+      <c r="U30" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="V30" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="V30" s="13" t="s">
+      <c r="W30" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="W30" s="59" t="s">
+      <c r="X30" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="X30" s="13"/>
-      <c r="AW30" s="13" t="s">
+      <c r="Y30" s="13"/>
+      <c r="AX30" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="AX30" s="13"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY30" s="13"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -4551,23 +4619,24 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="13"/>
+      <c r="U31" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="V31" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="V31" s="13" t="s">
+      <c r="W31" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="W31" s="59" t="s">
+      <c r="X31" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="X31" s="13"/>
-      <c r="AW31" s="13"/>
+      <c r="Y31" s="13"/>
       <c r="AX31" s="13"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY31" s="13"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>277</v>
       </c>
@@ -4588,23 +4657,24 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="13"/>
+      <c r="U32" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="U32" s="13" t="s">
+      <c r="V32" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="V32" s="13" t="s">
+      <c r="W32" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="W32" s="59" t="s">
+      <c r="X32" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="X32" s="13"/>
-      <c r="AW32" s="13"/>
+      <c r="Y32" s="13"/>
       <c r="AX32" s="13"/>
-    </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY32" s="13"/>
+    </row>
+    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>260</v>
       </c>
@@ -4625,21 +4695,22 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="V33" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="V33" s="13"/>
-      <c r="W33" s="59" t="s">
+      <c r="W33" s="13"/>
+      <c r="X33" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="X33" s="13"/>
-      <c r="AW33" s="13"/>
+      <c r="Y33" s="13"/>
       <c r="AX33" s="13"/>
-    </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY33" s="13"/>
+    </row>
+    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>261</v>
       </c>
@@ -4663,14 +4734,15 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
-      <c r="W34" s="59" t="s">
+      <c r="W34" s="13"/>
+      <c r="X34" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="X34" s="13"/>
-      <c r="AW34" s="13"/>
+      <c r="Y34" s="13"/>
       <c r="AX34" s="13"/>
-    </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY34" s="13"/>
+    </row>
+    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>258</v>
       </c>
@@ -4681,14 +4753,15 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="W35" s="59" t="s">
+      <c r="J35" s="13"/>
+      <c r="X35" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="X35" s="13"/>
-      <c r="AW35" s="13"/>
+      <c r="Y35" s="13"/>
       <c r="AX35" s="13"/>
-    </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY35" s="13"/>
+    </row>
+    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>313</v>
       </c>
@@ -4699,14 +4772,15 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="W36" s="59" t="s">
+      <c r="J36" s="13"/>
+      <c r="X36" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="X36" s="13"/>
-      <c r="AW36" s="13"/>
+      <c r="Y36" s="13"/>
       <c r="AX36" s="13"/>
-    </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY36" s="13"/>
+    </row>
+    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>324</v>
       </c>
@@ -4717,14 +4791,15 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="W37" s="59" t="s">
+      <c r="J37" s="13"/>
+      <c r="X37" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="X37" s="13"/>
-      <c r="AW37" s="13"/>
+      <c r="Y37" s="13"/>
       <c r="AX37" s="13"/>
-    </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY37" s="13"/>
+    </row>
+    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>325</v>
       </c>
@@ -4735,14 +4810,15 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="W38" s="59" t="s">
+      <c r="J38" s="13"/>
+      <c r="X38" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="X38" s="13"/>
-      <c r="AW38" s="13"/>
+      <c r="Y38" s="13"/>
       <c r="AX38" s="13"/>
-    </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY38" s="13"/>
+    </row>
+    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>339</v>
       </c>
@@ -4753,14 +4829,15 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="W39" s="59" t="s">
+      <c r="J39" s="13"/>
+      <c r="X39" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="X39" s="13"/>
-      <c r="AW39" s="13"/>
+      <c r="Y39" s="13"/>
       <c r="AX39" s="13"/>
-    </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY39" s="13"/>
+    </row>
+    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>340</v>
       </c>
@@ -4770,15 +4847,18 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="W40" s="59" t="s">
+      <c r="I40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="X40" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="X40" s="13"/>
-      <c r="AW40" s="13"/>
+      <c r="Y40" s="13"/>
       <c r="AX40" s="13"/>
-    </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY40" s="13"/>
+    </row>
+    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>395</v>
       </c>
@@ -4788,15 +4868,18 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="W41" s="59" t="s">
+      <c r="I41" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="X41" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="X41" s="13"/>
-      <c r="AW41" s="13"/>
+      <c r="Y41" s="13"/>
       <c r="AX41" s="13"/>
-    </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AY41" s="13"/>
+    </row>
+    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>394</v>
       </c>
@@ -4806,41 +4889,55 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="W42" s="59" t="s">
+      <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="X42" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="X42" s="13"/>
-      <c r="AW42" s="13"/>
+      <c r="Y42" s="13"/>
       <c r="AX42" s="13"/>
-    </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="W43" s="59" t="s">
+      <c r="AY42" s="13"/>
+    </row>
+    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="X43" s="59" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="W44" s="59" t="s">
+    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X44" s="59" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="W45" s="59" t="s">
+    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="59" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="W46" s="59" t="s">
+    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="X46" s="59" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="W47" s="59" t="s">
+    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="X47" s="59" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="W48" s="40"/>
+    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="X48" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16027,7 +16124,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16373,7 +16470,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G28"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Все файлы проекта/Основные файлы проекта/База данных CourseProjectADONet.xlsx
+++ b/Все файлы проекта/Основные файлы проекта/База данных CourseProjectADONet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12195" tabRatio="855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="Общая схема" sheetId="33" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="499">
   <si>
     <t>Наименование</t>
   </si>
@@ -1509,6 +1509,42 @@
   </si>
   <si>
     <t>осиЛокальные</t>
+  </si>
+  <si>
+    <t>НомерЭтажа</t>
+  </si>
+  <si>
+    <t>НомерЯруса</t>
+  </si>
+  <si>
+    <t>ВысотаЭтажа</t>
+  </si>
+  <si>
+    <t>ВысотаПотолкаЧерновой</t>
+  </si>
+  <si>
+    <t>диафрагмы</t>
+  </si>
+  <si>
+    <t>стекло</t>
+  </si>
+  <si>
+    <t>сборныйЖелезобетон</t>
+  </si>
+  <si>
+    <t>кровля</t>
+  </si>
+  <si>
+    <t>полы</t>
+  </si>
+  <si>
+    <t>перегородки</t>
+  </si>
+  <si>
+    <t>лестничныеПлощадки</t>
+  </si>
+  <si>
+    <t>фермы</t>
   </si>
 </sst>
 </file>
@@ -2194,13 +2230,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2485,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,11 +2534,11 @@
     <col min="5" max="7" width="23.42578125" style="40" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="12" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
@@ -2612,13 +2648,13 @@
       <c r="C2" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="73" t="s">
         <v>451</v>
       </c>
       <c r="G2" s="67" t="s">
@@ -2630,10 +2666,10 @@
       <c r="I2" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="65" t="s">
         <v>387</v>
       </c>
       <c r="L2" s="41" t="s">
@@ -2761,7 +2797,7 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>423</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -2919,7 +2955,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="70" t="s">
         <v>424</v>
       </c>
@@ -3075,7 +3111,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="70"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
@@ -3096,8 +3132,12 @@
       <c r="I5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>389</v>
+      </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
@@ -3145,7 +3185,7 @@
       <c r="AZ5" s="48"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="70"/>
       <c r="C6" s="47"/>
       <c r="D6" s="49" t="s">
@@ -3166,7 +3206,9 @@
       <c r="I6" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="47" t="s">
+        <v>488</v>
+      </c>
       <c r="K6" s="47"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -3213,7 +3255,7 @@
       <c r="AZ6" s="48"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="70"/>
       <c r="C7" s="47"/>
       <c r="D7" s="49" t="s">
@@ -3234,7 +3276,9 @@
       <c r="I7" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="47" t="s">
+        <v>489</v>
+      </c>
       <c r="K7" s="47"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -3281,7 +3325,7 @@
       <c r="AZ7" s="48"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="36"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49" t="s">
@@ -3302,7 +3346,9 @@
       <c r="I8" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="47" t="s">
+        <v>490</v>
+      </c>
       <c r="K8" s="47"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -3349,7 +3395,7 @@
       <c r="AZ8" s="48"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="36"/>
       <c r="C9" s="49"/>
       <c r="D9" s="47" t="s">
@@ -3411,7 +3457,7 @@
       <c r="AZ9" s="48"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="36"/>
       <c r="C10" s="49"/>
       <c r="D10" s="69" t="s">
@@ -3473,7 +3519,7 @@
       <c r="AZ10" s="48"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="36"/>
       <c r="C11" s="49"/>
       <c r="D11" s="47"/>
@@ -3533,7 +3579,7 @@
       <c r="AZ11" s="48"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="36"/>
       <c r="C12" s="49"/>
       <c r="D12" s="47"/>
@@ -3591,7 +3637,7 @@
       <c r="AZ12" s="48"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="36"/>
       <c r="C13" s="49"/>
       <c r="D13" s="47"/>
@@ -3647,7 +3693,7 @@
       <c r="AZ13" s="48"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="36"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
@@ -3703,7 +3749,7 @@
       <c r="AZ14" s="48"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="36"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
@@ -3759,7 +3805,7 @@
       <c r="AZ15" s="48"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="36"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
@@ -3815,7 +3861,7 @@
       <c r="AZ16" s="48"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="36"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -3871,7 +3917,7 @@
       <c r="AZ17" s="48"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="36"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -3927,7 +3973,7 @@
       <c r="AZ18" s="48"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="36"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -3983,7 +4029,7 @@
       <c r="AZ19" s="48"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="36"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
@@ -4039,7 +4085,7 @@
       <c r="AZ20" s="48"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="36"/>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4095,7 +4141,7 @@
       <c r="AZ21" s="48"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="36"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4151,7 +4197,7 @@
       <c r="AZ22" s="48"/>
     </row>
     <row r="23" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="55"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
@@ -4304,8 +4350,8 @@
       <c r="J26" s="13">
         <v>1</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>260</v>
+      <c r="K26" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>392</v>
@@ -4313,8 +4359,8 @@
       <c r="M26" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="N26" s="13" t="s">
-        <v>256</v>
+      <c r="N26" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="O26" s="13" t="s">
         <v>259</v>
@@ -4382,8 +4428,8 @@
       <c r="J27" s="13">
         <v>2</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>261</v>
+      <c r="K27" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>393</v>
@@ -4392,7 +4438,7 @@
         <v>311</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="O27" s="13" t="s">
         <v>303</v>
@@ -4453,13 +4499,17 @@
         <v>3</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="L28" s="13"/>
+        <v>256</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>492</v>
+      </c>
       <c r="M28" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N28" s="13"/>
+      <c r="N28" s="13" t="s">
+        <v>304</v>
+      </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -4514,10 +4564,12 @@
       <c r="J29" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="L29" s="13"/>
+      <c r="K29" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>493</v>
+      </c>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -4568,7 +4620,9 @@
       <c r="J30" s="13">
         <v>200</v>
       </c>
-      <c r="K30" s="13"/>
+      <c r="K30" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
@@ -4610,7 +4664,9 @@
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="12" t="s">
+        <v>497</v>
+      </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
@@ -4648,7 +4704,9 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="K32" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
@@ -4686,7 +4744,9 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="K33" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
@@ -4722,7 +4782,9 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="K34" s="13" t="s">
+        <v>498</v>
+      </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
@@ -4754,6 +4816,9 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
+      <c r="K35" s="13" t="s">
+        <v>494</v>
+      </c>
       <c r="X35" s="59" t="s">
         <v>293</v>
       </c>
@@ -4773,6 +4838,9 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
+      <c r="K36" s="12" t="s">
+        <v>495</v>
+      </c>
       <c r="X36" s="59" t="s">
         <v>379</v>
       </c>
@@ -16470,7 +16538,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17804,7 +17872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -19979,8 +20047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:D55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
